--- a/V0.1.b-Synercrete23/microEMMARM/00-HARDWARE/BOM_COSTS.xlsx
+++ b/V0.1.b-Synercrete23/microEMMARM/00-HARDWARE/BOM_COSTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1cc85033b78382a/Renan/Engenharia Civil/Desenvolvimentos/microEMMARM/V0.1.b-Synercrete23/microEMMARM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1cc85033b78382a/Renan/Engenharia Civil/Desenvolvimentos/microEMMARM/V0.1.b-Synercrete23/microEMMARM/00-HARDWARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1002" documentId="8_{86A78C6C-D731-48C4-8717-58738CD12A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57983DB4-F183-45EB-876F-DC6D3CD87693}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="8_{86A78C6C-D731-48C4-8717-58738CD12A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D85D5D2-4218-49D9-AC34-DA4F8F9092F9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEE622B9-4FE7-45D5-9A84-4C4AC2911A7C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{EEE622B9-4FE7-45D5-9A84-4C4AC2911A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM and cost" sheetId="5" r:id="rId1"/>
@@ -857,7 +857,7 @@
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,12 +880,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1007,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1015,12 +1009,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1048,15 +1041,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,10 +1061,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1448,126 +1440,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CBAB69-FBF6-4A2D-9DEE-FDD3C8C31195}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="18" customWidth="1"/>
     <col min="8" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="18" customWidth="1"/>
     <col min="12" max="14" width="13.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="18" customWidth="1"/>
     <col min="16" max="16" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="38" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="39" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="14" t="s">
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1577,52 +1572,53 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0.22800000000000001</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="23">
         <f>AVERAGE(D4,H4,L4)</f>
         <v>0.10866666666666669</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="21">
         <f>A4*P4</f>
         <v>0.32600000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1632,52 +1628,53 @@
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <v>0.157</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>0.254</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>0.25800000000000001</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="23">
         <f t="shared" ref="P5:P41" si="0">AVERAGE(D5,H5,L5)</f>
         <v>0.223</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="21">
         <f t="shared" ref="Q5:Q41" si="1">A5*P5</f>
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1687,52 +1684,53 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="23">
         <f t="shared" si="0"/>
         <v>2.4266666666666662E-2</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="21">
         <f t="shared" si="1"/>
         <v>7.279999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1742,52 +1740,53 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <v>0.47599999999999998</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>0.42599999999999999</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>0.42799999999999999</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <f t="shared" si="0"/>
         <v>0.4433333333333333</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="21">
         <f t="shared" si="1"/>
         <v>0.4433333333333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1797,52 +1796,53 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <v>0.59699999999999998</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>0.89</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>0.69599999999999995</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <f t="shared" si="0"/>
         <v>0.72766666666666657</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <f t="shared" si="1"/>
         <v>0.72766666666666657</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1852,31 +1852,31 @@
       <c r="C9" s="5">
         <v>29</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <v>3.39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>2.8</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <v>2.61</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -1885,19 +1885,20 @@
       <c r="N9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="23">
         <f t="shared" si="0"/>
         <v>2.9333333333333331</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="21">
         <f t="shared" si="1"/>
         <v>2.9333333333333331</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1907,31 +1908,31 @@
       <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <v>0.1</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -1940,19 +1941,20 @@
       <c r="N10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="23">
         <f t="shared" si="0"/>
         <v>5.0333333333333341E-2</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="21">
         <f t="shared" si="1"/>
         <v>0.20133333333333336</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1962,31 +1964,31 @@
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="23">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <v>0.46</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="23">
         <v>0.41</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -1995,19 +1997,20 @@
       <c r="N11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="23">
         <f t="shared" si="0"/>
         <v>0.39199999999999996</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="21">
         <f t="shared" si="1"/>
         <v>0.78399999999999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -2017,32 +2020,32 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="23">
         <v>1.4E-2</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <f>0.06*0.967</f>
         <v>5.8019999999999995E-2</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="22">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -2051,19 +2054,20 @@
       <c r="N12" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="23">
         <f t="shared" si="0"/>
         <v>3.8339999999999999E-2</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="21">
         <f t="shared" si="1"/>
         <v>7.6679999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -2073,31 +2077,31 @@
       <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="22">
         <v>0.86299999999999999</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="22">
         <v>0.63900000000000001</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -2106,19 +2110,20 @@
       <c r="N13" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="23">
         <f t="shared" si="0"/>
         <v>0.70033333333333336</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="21">
         <f t="shared" si="1"/>
         <v>0.70033333333333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -2128,31 +2133,31 @@
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="23">
         <v>0.86</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="23">
         <v>0.87</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -2161,19 +2166,20 @@
       <c r="N14" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="23">
         <f t="shared" si="0"/>
         <v>0.89566666666666661</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="21">
         <f t="shared" si="1"/>
         <v>0.89566666666666661</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2183,52 +2189,53 @@
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="23">
         <v>0.22</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>0.18</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="23">
         <v>0.21</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="23">
         <f t="shared" si="0"/>
         <v>0.20333333333333334</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="21">
         <f t="shared" si="1"/>
         <v>2.44</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -2238,52 +2245,53 @@
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="23">
         <v>0.16</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <v>0.158</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="23">
         <v>0.22</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="23">
         <f>AVERAGE(D16,H16,L16)</f>
         <v>0.17933333333333334</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="21">
         <f t="shared" si="1"/>
         <v>2.1520000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>5</v>
       </c>
@@ -2293,52 +2301,53 @@
       <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>0.27</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="22">
         <v>0.128</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="23">
         <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="21">
         <f t="shared" si="1"/>
         <v>1.1300000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -2348,52 +2357,53 @@
       <c r="C18" s="5">
         <v>16</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="23">
         <v>0.17</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>0.16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="22">
         <v>0.191</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>50062</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="23">
         <f t="shared" si="0"/>
         <v>0.17366666666666666</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="21">
         <f t="shared" si="1"/>
         <v>0.86833333333333329</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -2403,31 +2413,31 @@
       <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>0.33</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="23">
         <v>0.36</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -2436,19 +2446,20 @@
       <c r="N19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="23">
         <f t="shared" si="0"/>
         <v>0.42333333333333334</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="21">
         <f t="shared" si="1"/>
         <v>0.84666666666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -2458,52 +2469,53 @@
       <c r="C20" s="5">
         <v>17</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="23">
         <v>0.23</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="23">
         <v>5.4210000000000001E-2</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="22">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="23">
         <f t="shared" si="0"/>
         <v>0.12707000000000002</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="21">
         <f t="shared" si="1"/>
         <v>0.25414000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -2513,52 +2525,53 @@
       <c r="C21" s="5">
         <v>14</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>0.45</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="23">
         <v>0.42</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="23">
         <v>0.41</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="23">
         <f t="shared" si="0"/>
         <v>0.42666666666666669</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="21">
         <f t="shared" si="1"/>
         <v>0.42666666666666669</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -2568,52 +2581,53 @@
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="23">
         <v>0.18</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="23">
         <v>6.9830000000000003E-2</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="23">
         <f t="shared" si="0"/>
         <v>0.17994333333333334</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="21">
         <f t="shared" si="1"/>
         <v>0.17994333333333334</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2623,52 +2637,53 @@
       <c r="C23" s="5">
         <v>34</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>0.69</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="23">
         <v>0.46</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="23">
         <v>0.26800000000000002</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="23">
         <f t="shared" si="0"/>
         <v>0.47266666666666662</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="21">
         <f t="shared" si="1"/>
         <v>0.94533333333333325</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2678,52 +2693,53 @@
       <c r="C24" s="5">
         <v>19</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="23">
         <v>0.44</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="23">
         <v>0.47</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="23">
         <v>0.46</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="23">
         <f t="shared" si="0"/>
         <v>0.45666666666666661</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="21">
         <f t="shared" si="1"/>
         <v>0.91333333333333322</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" s="25"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f>A15*2+A17*3+A19*4+A21*5+A23*6</f>
         <v>64</v>
@@ -2734,31 +2750,31 @@
       <c r="C25" s="5">
         <v>20</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="23">
         <v>0.1</v>
       </c>
       <c r="M25" s="5" t="s">
@@ -2767,19 +2783,20 @@
       <c r="N25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="O25" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="23">
         <f t="shared" si="0"/>
         <v>8.2533333333333334E-2</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="21">
         <f t="shared" si="1"/>
         <v>5.2821333333333333</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2789,52 +2806,53 @@
       <c r="C26" s="5">
         <v>33</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="23">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="23">
         <v>0.14280000000000001</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="23">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="9" t="s">
         <v>70</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="23">
         <f t="shared" si="0"/>
         <v>0.12793333333333334</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="21">
         <f t="shared" si="1"/>
         <v>0.12793333333333334</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -2844,52 +2862,53 @@
       <c r="C27" s="5">
         <v>21</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="23">
         <v>1.03</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="22">
         <v>1.43</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="22">
         <v>1.2130000000000001</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>72</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="23">
         <f t="shared" si="0"/>
         <v>1.2243333333333333</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="21">
         <f t="shared" si="1"/>
         <v>4.8973333333333331</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -2899,52 +2918,53 @@
       <c r="C28" s="5">
         <v>22</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="23">
         <v>1.03</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="23">
         <v>1.43</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="22">
         <v>1.2130000000000001</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="9" t="s">
         <v>75</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="23">
         <f t="shared" si="0"/>
         <v>1.2243333333333333</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="21">
         <f t="shared" si="1"/>
         <v>1.2243333333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>5</v>
       </c>
@@ -2954,52 +2974,53 @@
       <c r="C29" s="5">
         <v>23</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="23">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="22">
         <v>4.55</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="23">
         <v>1.71</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="O29" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="23">
         <f t="shared" si="0"/>
         <v>2.3436666666666666</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="21">
         <f t="shared" si="1"/>
         <v>11.718333333333334</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
@@ -3009,52 +3030,53 @@
       <c r="C30" s="5">
         <v>24</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="23">
         <v>1.58</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="22">
         <v>1.8380000000000001</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="23">
         <v>1.093</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="9" t="s">
         <v>80</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="O30" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="23">
         <f t="shared" si="0"/>
         <v>1.5036666666666667</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="21">
         <f t="shared" si="1"/>
         <v>6.0146666666666668</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -3064,52 +3086,53 @@
       <c r="C31" s="5">
         <v>25</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="23">
         <v>1.58</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="22">
         <v>1.095</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="22">
         <v>1.841</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>82</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="23">
         <f t="shared" si="0"/>
         <v>1.5053333333333334</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="21">
         <f t="shared" si="1"/>
         <v>6.0213333333333336</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -3119,52 +3142,53 @@
       <c r="C32" s="5">
         <v>26</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="23">
         <v>1.06</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="22">
         <v>0.70199999999999996</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="22">
         <v>1.1279999999999999</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>84</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="O32" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="23">
         <f t="shared" si="0"/>
         <v>0.96333333333333326</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="21">
         <f t="shared" si="1"/>
         <v>0.96333333333333326</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -3174,52 +3198,53 @@
       <c r="C33" s="5">
         <v>27</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="23">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="23">
         <v>0.15</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="22">
         <v>0.15</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>93</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="O33" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="23">
         <f t="shared" si="0"/>
         <v>0.15533333333333332</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="21">
         <f t="shared" si="1"/>
         <v>0.15533333333333332</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -3229,52 +3254,53 @@
       <c r="C34" s="5">
         <v>28</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="23">
         <v>0.63</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="23">
         <v>0.62</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="23">
         <f t="shared" si="0"/>
         <v>0.60666666666666658</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="21">
         <f t="shared" si="1"/>
         <v>0.60666666666666658</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -3284,31 +3310,31 @@
       <c r="C35" s="5">
         <v>30</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="23">
         <v>15.16</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="23">
         <v>9.5</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="23">
         <v>15.73</v>
       </c>
       <c r="M35" s="5" t="s">
@@ -3317,19 +3343,20 @@
       <c r="N35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="O35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="23">
         <f t="shared" si="0"/>
         <v>13.463333333333333</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="21">
         <f t="shared" si="1"/>
         <v>13.463333333333333</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -3339,31 +3366,31 @@
       <c r="C36" s="5">
         <v>31</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="23">
         <v>8.1999999999999993</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="23">
         <v>5.6</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>131</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="23">
         <v>7.82</v>
       </c>
       <c r="M36" s="5" t="s">
@@ -3372,19 +3399,20 @@
       <c r="N36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="23">
         <f t="shared" si="0"/>
         <v>7.2066666666666661</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="21">
         <f t="shared" si="1"/>
         <v>7.2066666666666661</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T36" s="25"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -3394,31 +3422,31 @@
       <c r="C37" s="5">
         <v>32</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="23">
         <v>4.49</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="23">
         <v>2.95</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>129</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="23">
         <v>6.48</v>
       </c>
       <c r="M37" s="5" t="s">
@@ -3427,19 +3455,20 @@
       <c r="N37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="O37" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="23">
         <f t="shared" si="0"/>
         <v>4.6400000000000006</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="21">
         <f t="shared" si="1"/>
         <v>4.6400000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -3449,31 +3478,31 @@
       <c r="C38" s="5">
         <v>35</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="23">
         <v>8.2899999999999991</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="23">
         <v>7.9</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="23">
         <v>8.18</v>
       </c>
       <c r="M38" s="5" t="s">
@@ -3482,53 +3511,54 @@
       <c r="N38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="16" t="s">
+      <c r="O38" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="23">
         <f t="shared" si="0"/>
         <v>8.1233333333333331</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="21">
         <f t="shared" si="1"/>
         <v>8.1233333333333331</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="23">
         <v>14.7</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="23">
         <v>12.02</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="23">
         <v>18.350000000000001</v>
       </c>
       <c r="M39" s="5" t="s">
@@ -3537,19 +3567,21 @@
       <c r="N39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="16" t="s">
+      <c r="O39" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="23">
         <f t="shared" si="0"/>
         <v>15.023333333333333</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="21">
         <f t="shared" si="1"/>
         <v>60.093333333333334</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S39" s="26"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -3559,31 +3591,31 @@
       <c r="C40" s="5">
         <v>37</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="23">
         <v>10.95</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="23">
         <v>9.4</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>151</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="23">
         <v>11.6</v>
       </c>
       <c r="M40" s="5" t="s">
@@ -3592,53 +3624,54 @@
       <c r="N40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O40" s="16" t="s">
+      <c r="O40" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="23">
         <f t="shared" si="0"/>
         <v>10.65</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="21">
         <f t="shared" si="1"/>
         <v>10.65</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>38</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="23">
         <v>1.71</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="22">
         <v>1.9319999999999999</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="23">
         <v>1.2</v>
       </c>
       <c r="M41" s="5" t="s">
@@ -3647,54 +3680,55 @@
       <c r="N41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="16" t="s">
+      <c r="O41" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="23">
         <f t="shared" si="0"/>
         <v>1.6139999999999999</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="21">
         <f t="shared" si="1"/>
         <v>8.07</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>1</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="23">
         <v>23.11</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="23">
         <f>(1+27.82)*0.967</f>
         <v>27.868939999999998</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>240</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="23">
         <f>(1+28)*0.967</f>
         <v>28.042999999999999</v>
       </c>
@@ -3704,78 +3738,81 @@
       <c r="N42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="23">
         <f>AVERAGE(D42,H42,L42)</f>
         <v>26.340646666666668</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="21">
         <f>A42*P42</f>
         <v>26.340646666666668</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="23">
         <v>1.61</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="26">
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="23">
         <f>AVERAGE(D43,H43,L43)</f>
         <v>1.61</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="21">
         <f>A43*P43</f>
         <v>1.61</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="31">
         <f>SUM(Q4:Q43)</f>
         <v>194.97227666666666</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="34"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="32"/>
+      <c r="T44" s="25"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -3924,7 +3961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4519C26-AAA6-49EF-8997-68E1E361C2A5}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -3934,113 +3971,113 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="18" customWidth="1"/>
     <col min="8" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="18" customWidth="1"/>
     <col min="12" max="14" width="13.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="18" customWidth="1"/>
     <col min="16" max="16" width="9.44140625" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="43"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -4055,37 +4092,37 @@
       <c r="D4" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>0.22800000000000001</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>169</v>
       </c>
       <c r="L4" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>162</v>
       </c>
       <c r="P4" s="5">
@@ -4110,37 +4147,37 @@
       <c r="D5" s="5">
         <v>0.157</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>171</v>
       </c>
       <c r="H5" s="4">
         <v>0.254</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>168</v>
       </c>
       <c r="L5" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>161</v>
       </c>
       <c r="P5" s="5">
@@ -4165,37 +4202,37 @@
       <c r="D6" s="5">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>167</v>
       </c>
       <c r="L6" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>163</v>
       </c>
       <c r="P6" s="5">
@@ -4220,37 +4257,37 @@
       <c r="D7" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>166</v>
       </c>
       <c r="L7" s="3">
         <v>0.42799999999999999</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>164</v>
       </c>
       <c r="P7" s="5">
@@ -4275,37 +4312,37 @@
       <c r="D8" s="5">
         <v>0.59699999999999998</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="6">
         <v>0.89</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>165</v>
       </c>
       <c r="L8" s="3">
         <v>0.69599999999999995</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="19" t="s">
         <v>173</v>
       </c>
       <c r="P8" s="5">
@@ -4330,25 +4367,25 @@
       <c r="D9" s="5">
         <v>3.39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H9" s="6">
         <v>2.8</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>176</v>
       </c>
       <c r="L9" s="3">
@@ -4360,7 +4397,7 @@
       <c r="N9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="19" t="s">
         <v>177</v>
       </c>
       <c r="P9" s="5">
@@ -4385,25 +4422,25 @@
       <c r="D10" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>180</v>
       </c>
       <c r="L10" s="5">
@@ -4415,7 +4452,7 @@
       <c r="N10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="19" t="s">
         <v>179</v>
       </c>
       <c r="P10" s="5">
@@ -4440,25 +4477,25 @@
       <c r="D11" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="6">
         <v>0.46</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>183</v>
       </c>
       <c r="L11" s="5">
@@ -4470,7 +4507,7 @@
       <c r="N11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="19" t="s">
         <v>182</v>
       </c>
       <c r="P11" s="5">
@@ -4495,26 +4532,26 @@
       <c r="D12" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="4">
         <f>0.06*0.967</f>
         <v>5.8019999999999995E-2</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>185</v>
       </c>
       <c r="L12" s="3">
@@ -4526,7 +4563,7 @@
       <c r="N12" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>186</v>
       </c>
       <c r="P12" s="5">
@@ -4551,25 +4588,25 @@
       <c r="D13" s="5">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>187</v>
       </c>
       <c r="H13" s="4">
         <v>0.86299999999999999</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>189</v>
       </c>
       <c r="L13" s="3">
@@ -4581,7 +4618,7 @@
       <c r="N13" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>188</v>
       </c>
       <c r="P13" s="5">
@@ -4606,25 +4643,25 @@
       <c r="D14" s="5">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6">
         <v>0.86</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>190</v>
       </c>
       <c r="L14" s="5">
@@ -4636,7 +4673,7 @@
       <c r="N14" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>191</v>
       </c>
       <c r="P14" s="5">
@@ -4661,37 +4698,37 @@
       <c r="D15" s="5">
         <v>0.22</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="6">
         <v>0.18</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>192</v>
       </c>
       <c r="L15" s="5">
         <v>0.21</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="19" t="s">
         <v>193</v>
       </c>
       <c r="P15" s="5">
@@ -4716,37 +4753,37 @@
       <c r="D16" s="5">
         <v>0.16</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="4">
         <v>0.158</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>194</v>
       </c>
       <c r="L16" s="5">
         <v>0.22</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>195</v>
       </c>
       <c r="P16" s="5">
@@ -4771,37 +4808,37 @@
       <c r="D17" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="6">
         <v>0.27</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>196</v>
       </c>
       <c r="L17" s="3">
         <v>0.128</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="19" t="s">
         <v>197</v>
       </c>
       <c r="P17" s="5">
@@ -4826,37 +4863,37 @@
       <c r="D18" s="5">
         <v>0.17</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>0.16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L18" s="3">
         <v>0.191</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>50062</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="19" t="s">
         <v>199</v>
       </c>
       <c r="P18" s="5">
@@ -4881,25 +4918,25 @@
       <c r="D19" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="6">
         <v>0.33</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="5">
@@ -4911,7 +4948,7 @@
       <c r="N19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>200</v>
       </c>
       <c r="P19" s="5">
@@ -4936,37 +4973,37 @@
       <c r="D20" s="5">
         <v>0.23</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="6">
         <v>5.4210000000000001E-2</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>203</v>
       </c>
       <c r="L20" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>204</v>
       </c>
       <c r="P20" s="5">
@@ -4991,37 +5028,37 @@
       <c r="D21" s="5">
         <v>0.45</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="6">
         <v>0.42</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>206</v>
       </c>
       <c r="L21" s="5">
         <v>0.41</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="19" t="s">
         <v>205</v>
       </c>
       <c r="P21" s="5">
@@ -5046,37 +5083,37 @@
       <c r="D22" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="6">
         <v>0.18</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>208</v>
       </c>
       <c r="L22" s="5">
         <v>6.9830000000000003E-2</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>207</v>
       </c>
       <c r="P22" s="5">
@@ -5101,37 +5138,37 @@
       <c r="D23" s="5">
         <v>0.69</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="H23" s="6">
         <v>0.46</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="19" t="s">
         <v>210</v>
       </c>
       <c r="L23" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="19" t="s">
         <v>209</v>
       </c>
       <c r="P23" s="5">
@@ -5156,37 +5193,37 @@
       <c r="D24" s="5">
         <v>0.44</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="6">
         <v>0.47</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>212</v>
       </c>
       <c r="L24" s="5">
         <v>0.46</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="19" t="s">
         <v>211</v>
       </c>
       <c r="P24" s="5">
@@ -5212,25 +5249,25 @@
       <c r="D25" s="5">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>213</v>
       </c>
       <c r="L25" s="5">
@@ -5242,7 +5279,7 @@
       <c r="N25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>214</v>
       </c>
       <c r="P25" s="5">
@@ -5267,37 +5304,37 @@
       <c r="D26" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="6">
         <v>0.14280000000000001</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>215</v>
       </c>
       <c r="L26" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="9" t="s">
         <v>70</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>217</v>
       </c>
       <c r="P26" s="5">
@@ -5322,37 +5359,37 @@
       <c r="D27" s="5">
         <v>1.03</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>73</v>
       </c>
       <c r="H27" s="4">
         <v>1.43</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>219</v>
       </c>
       <c r="L27" s="3">
         <v>1.2130000000000001</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>72</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="19" t="s">
         <v>218</v>
       </c>
       <c r="P27" s="5">
@@ -5377,37 +5414,37 @@
       <c r="D28" s="5">
         <v>1.03</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H28" s="6">
         <v>1.43</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="3">
         <v>1.2130000000000001</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="9" t="s">
         <v>75</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="19" t="s">
         <v>221</v>
       </c>
       <c r="P28" s="5">
@@ -5432,37 +5469,37 @@
       <c r="D29" s="5">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>79</v>
       </c>
       <c r="H29" s="4">
         <v>4.55</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>222</v>
       </c>
       <c r="L29" s="5">
         <v>1.71</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="19" t="s">
         <v>223</v>
       </c>
       <c r="P29" s="5">
@@ -5487,37 +5524,37 @@
       <c r="D30" s="5">
         <v>1.58</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H30" s="4">
         <v>1.8380000000000001</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>225</v>
       </c>
       <c r="L30" s="5">
         <v>1.093</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="9" t="s">
         <v>80</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="O30" s="19" t="s">
         <v>224</v>
       </c>
       <c r="P30" s="5">
@@ -5542,37 +5579,37 @@
       <c r="D31" s="5">
         <v>1.58</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H31" s="4">
         <v>1.095</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>226</v>
       </c>
       <c r="L31" s="3">
         <v>1.841</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>82</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>228</v>
       </c>
       <c r="P31" s="5">
@@ -5597,37 +5634,37 @@
       <c r="D32" s="5">
         <v>1.06</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="4">
         <v>0.70199999999999996</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>229</v>
       </c>
       <c r="L32" s="3">
         <v>1.1279999999999999</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>84</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="19" t="s">
         <v>230</v>
       </c>
       <c r="P32" s="5">
@@ -5652,37 +5689,37 @@
       <c r="D33" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="6">
         <v>0.15</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>231</v>
       </c>
       <c r="L33" s="4">
         <v>0.15</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>93</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O33" s="20" t="s">
+      <c r="O33" s="19" t="s">
         <v>232</v>
       </c>
       <c r="P33" s="5">
@@ -5707,37 +5744,37 @@
       <c r="D34" s="5">
         <v>0.63</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H34" s="6">
         <v>0.62</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>233</v>
       </c>
       <c r="L34" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" s="8" t="s">
         <v>234</v>
       </c>
       <c r="P34" s="5">
@@ -5765,10 +5802,10 @@
       <c r="E35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>98</v>
       </c>
       <c r="H35" s="5">
@@ -5777,10 +5814,10 @@
       <c r="I35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>109</v>
       </c>
       <c r="L35" s="5">
@@ -5792,7 +5829,7 @@
       <c r="N35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="O35" s="15" t="s">
         <v>113</v>
       </c>
       <c r="P35" s="5">
@@ -5820,22 +5857,22 @@
       <c r="E36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>100</v>
       </c>
       <c r="H36" s="6">
         <v>5.6</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>131</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>132</v>
       </c>
       <c r="L36" s="5">
@@ -5847,7 +5884,7 @@
       <c r="N36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="19" t="s">
         <v>137</v>
       </c>
       <c r="P36" s="5">
@@ -5875,22 +5912,22 @@
       <c r="E37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H37" s="6">
         <v>2.95</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>129</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>130</v>
       </c>
       <c r="L37" s="5">
@@ -5902,7 +5939,7 @@
       <c r="N37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="19" t="s">
         <v>135</v>
       </c>
       <c r="P37" s="5">
@@ -5927,25 +5964,25 @@
       <c r="D38" s="5">
         <v>8.2899999999999991</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>125</v>
       </c>
       <c r="H38" s="6">
         <v>7.9</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>128</v>
       </c>
       <c r="L38" s="5">
@@ -5957,7 +5994,7 @@
       <c r="N38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="19" t="s">
         <v>140</v>
       </c>
       <c r="P38" s="5">
@@ -5976,31 +6013,31 @@
       <c r="B39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D39" s="5">
         <v>14.7</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H39" s="6">
         <v>12.02</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="19" t="s">
         <v>145</v>
       </c>
       <c r="L39" s="5">
@@ -6012,7 +6049,7 @@
       <c r="N39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="O39" s="19" t="s">
         <v>146</v>
       </c>
       <c r="P39" s="5">
@@ -6037,25 +6074,25 @@
       <c r="D40" s="5">
         <v>10.95</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>154</v>
       </c>
       <c r="H40" s="6">
         <v>9.4</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>151</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>152</v>
       </c>
       <c r="L40" s="5">
@@ -6067,7 +6104,7 @@
       <c r="N40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O40" s="20" t="s">
+      <c r="O40" s="19" t="s">
         <v>149</v>
       </c>
       <c r="P40" s="5">
@@ -6080,37 +6117,37 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>38</v>
       </c>
       <c r="D41" s="5">
         <v>1.71</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="4">
         <v>1.9319999999999999</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="19" t="s">
         <v>235</v>
       </c>
       <c r="L41" s="5">
@@ -6122,7 +6159,7 @@
       <c r="N41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="19" t="s">
         <v>237</v>
       </c>
       <c r="P41" s="5">
@@ -6135,38 +6172,38 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>1</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>239</v>
       </c>
       <c r="D42" s="5">
         <v>23.11</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>242</v>
       </c>
       <c r="H42" s="6">
         <f>(1+27.82)*0.967</f>
         <v>27.868939999999998</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>240</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="19" t="s">
         <v>244</v>
       </c>
       <c r="L42" s="5">
@@ -6179,7 +6216,7 @@
       <c r="N42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="19" t="s">
         <v>247</v>
       </c>
       <c r="P42" s="5">
@@ -6192,33 +6229,33 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D43" s="5">
         <v>1.61</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="5">
         <v>0</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="21"/>
+      <c r="O43" s="20"/>
       <c r="P43" s="5">
         <f>AVERAGE(D43,H43,L43)</f>
         <v>0.80500000000000005</v>
@@ -6229,8 +6266,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P44" s="8"/>
-      <c r="Q44" s="28">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="24">
         <f>SUM(Q4:Q43)</f>
         <v>116.73861000000001</v>
       </c>
